--- a/SPPSApi/Doc/Template/FS0622.xlsx
+++ b/SPPSApi/Doc/Template/FS0622.xlsx
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波动比例(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,28 +370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
